--- a/experiments/2021_scientific_reports/results/statistics/stats_questionnaire_mdbf_pre_post.xlsx
+++ b/experiments/2021_scientific_reports/results/statistics/stats_questionnaire_mdbf_pre_post.xlsx
@@ -601,10 +601,10 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>0.9478020071983337</v>
+        <v>0.9478</v>
       </c>
       <c r="E3">
-        <v>0.6051058173179626</v>
+        <v>0.6051</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -617,10 +617,10 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>0.9145111441612244</v>
+        <v>0.9145</v>
       </c>
       <c r="E4">
-        <v>0.2436333894729614</v>
+        <v>0.2436</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>0.8240301012992859</v>
+        <v>0.824</v>
       </c>
       <c r="E5">
-        <v>0.01780742406845093</v>
+        <v>0.0178</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>0.9382286667823792</v>
+        <v>0.9382</v>
       </c>
       <c r="E6">
-        <v>0.4754717350006104</v>
+        <v>0.4755</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>0.9498435258865356</v>
+        <v>0.9498</v>
       </c>
       <c r="E7">
-        <v>0.6346979141235352</v>
+        <v>0.6347</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>0.9592703580856323</v>
+        <v>0.9593</v>
       </c>
       <c r="E8">
-        <v>0.7733638882637024</v>
+        <v>0.7734</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -705,10 +705,10 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>0.8974552154541016</v>
+        <v>0.8975</v>
       </c>
       <c r="E9">
-        <v>0.1233981847763062</v>
+        <v>0.1234</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -721,10 +721,10 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>0.9550256133079529</v>
+        <v>0.955</v>
       </c>
       <c r="E10">
-        <v>0.6759627461433411</v>
+        <v>0.676</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -739,10 +739,10 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>0.965557336807251</v>
+        <v>0.9656</v>
       </c>
       <c r="E11">
-        <v>0.8362318873405457</v>
+        <v>0.8362000000000001</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -755,10 +755,10 @@
         <v>21</v>
       </c>
       <c r="D12">
-        <v>0.9744585156440735</v>
+        <v>0.9745</v>
       </c>
       <c r="E12">
-        <v>0.9411860108375549</v>
+        <v>0.9412</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>0.9095715284347534</v>
+        <v>0.9096</v>
       </c>
       <c r="E13">
-        <v>0.1809256672859192</v>
+        <v>0.1809</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -789,10 +789,10 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>0.9194225668907166</v>
+        <v>0.9194</v>
       </c>
       <c r="E14">
-        <v>0.2463900446891785</v>
+        <v>0.2464</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>-1.645103869155166</v>
+        <v>-1.6451</v>
       </c>
       <c r="J3">
         <v>11</v>
@@ -906,16 +906,16 @@
         <v>35</v>
       </c>
       <c r="L3">
-        <v>0.1281935403643221</v>
+        <v>0.1282</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
       </c>
       <c r="N3">
-        <v>-0.5467725861954973</v>
+        <v>-0.5468</v>
       </c>
       <c r="O3">
-        <v>0.3845806210929663</v>
+        <v>0.3846000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>-5.324182782428338</v>
+        <v>-5.3242</v>
       </c>
       <c r="J4">
         <v>11</v>
@@ -951,16 +951,16 @@
         <v>35</v>
       </c>
       <c r="L4">
-        <v>0.0002432265538328085</v>
+        <v>0.0002</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
       </c>
       <c r="N4">
-        <v>-1.353356368581227</v>
+        <v>-1.3534</v>
       </c>
       <c r="O4">
-        <v>0.0007296796614984255</v>
+        <v>0.0006000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>-5.669576017571347</v>
+        <v>-5.6696</v>
       </c>
       <c r="J5">
         <v>11</v>
@@ -996,16 +996,16 @@
         <v>35</v>
       </c>
       <c r="L5">
-        <v>0.0001445556059799887</v>
+        <v>0.0001</v>
       </c>
       <c r="M5" t="s">
         <v>38</v>
       </c>
       <c r="N5">
-        <v>-2.174022392948523</v>
+        <v>-2.174</v>
       </c>
       <c r="O5">
-        <v>0.0004336668179399662</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>-2.984874148806031</v>
+        <v>-2.9849</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -1043,16 +1043,16 @@
         <v>35</v>
       </c>
       <c r="L6">
-        <v>0.01138218728371035</v>
+        <v>0.0114</v>
       </c>
       <c r="M6" t="s">
         <v>39</v>
       </c>
       <c r="N6">
-        <v>-0.6168619148158467</v>
+        <v>-0.6169</v>
       </c>
       <c r="O6">
-        <v>0.03414656185113104</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>-5.402221765162922</v>
+        <v>-5.4022</v>
       </c>
       <c r="J7">
         <v>12</v>
@@ -1088,16 +1088,16 @@
         <v>35</v>
       </c>
       <c r="L7">
-        <v>0.0001595087642205626</v>
+        <v>0.0002</v>
       </c>
       <c r="M7" t="s">
         <v>40</v>
       </c>
       <c r="N7">
-        <v>-1.888525069872498</v>
+        <v>-1.8885</v>
       </c>
       <c r="O7">
-        <v>0.0004785262926616879</v>
+        <v>0.0006000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>-5.801091069960697</v>
+        <v>-5.8011</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -1133,16 +1133,16 @@
         <v>35</v>
       </c>
       <c r="L8">
-        <v>8.458881326548768E-05</v>
+        <v>0.0001</v>
       </c>
       <c r="M8" t="s">
         <v>41</v>
       </c>
       <c r="N8">
-        <v>-1.904190678394448</v>
+        <v>-1.9042</v>
       </c>
       <c r="O8">
-        <v>0.000253766439796463</v>
+        <v>0.0003</v>
       </c>
     </row>
   </sheetData>
